--- a/players_stats/Wesley Matthews.xlsx
+++ b/players_stats/Wesley Matthews.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ15"/>
+  <dimension ref="A1:AJ16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,15 +552,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1980-81</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TOT</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -570,90 +570,92 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>79</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>82</v>
+      </c>
+      <c r="I2" t="n">
+        <v>48</v>
+      </c>
       <c r="J2" t="n">
-        <v>2266</v>
+        <v>2025</v>
       </c>
       <c r="K2" t="n">
-        <v>385</v>
+        <v>273</v>
       </c>
       <c r="L2" t="n">
-        <v>779</v>
+        <v>565</v>
       </c>
       <c r="M2" t="n">
-        <v>0.494</v>
+        <v>0.483</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="O2" t="n">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c r="P2" t="n">
-        <v>0.238</v>
+        <v>0.382</v>
       </c>
       <c r="Q2" t="n">
-        <v>380</v>
+        <v>210</v>
       </c>
       <c r="R2" t="n">
-        <v>758</v>
+        <v>400</v>
       </c>
       <c r="S2" t="n">
-        <v>0.501</v>
+        <v>0.525</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4970000000000001</v>
+        <v>0.539</v>
       </c>
       <c r="U2" t="n">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="V2" t="n">
-        <v>252</v>
+        <v>193</v>
       </c>
       <c r="W2" t="n">
-        <v>0.802</v>
+        <v>0.8290000000000001</v>
       </c>
       <c r="X2" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Y2" t="n">
+        <v>141</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>124</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>64</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD2" t="n">
         <v>93</v>
       </c>
-      <c r="Z2" t="n">
-        <v>139</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>411</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>107</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>261</v>
-      </c>
       <c r="AE2" t="n">
-        <v>242</v>
+        <v>152</v>
       </c>
       <c r="AF2" t="n">
-        <v>977</v>
+        <v>769</v>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 193</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 77 </t>
+          <t xml:space="preserve"> 99 </t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -661,9 +663,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ2" t="n">
-        <v>14</v>
-      </c>
+      <c r="AJ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -674,15 +674,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1980-81</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>WSB</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -692,90 +692,92 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>45</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>82</v>
+      </c>
+      <c r="I3" t="n">
+        <v>69</v>
+      </c>
       <c r="J3" t="n">
-        <v>1161</v>
+        <v>2758</v>
       </c>
       <c r="K3" t="n">
-        <v>224</v>
+        <v>440</v>
       </c>
       <c r="L3" t="n">
-        <v>449</v>
+        <v>979</v>
       </c>
       <c r="M3" t="n">
-        <v>0.499</v>
+        <v>0.449</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="O3" t="n">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="P3" t="n">
-        <v>0.333</v>
+        <v>0.407</v>
       </c>
       <c r="Q3" t="n">
-        <v>219</v>
+        <v>286</v>
       </c>
       <c r="R3" t="n">
-        <v>434</v>
+        <v>601</v>
       </c>
       <c r="S3" t="n">
-        <v>0.505</v>
+        <v>0.476</v>
       </c>
       <c r="T3" t="n">
-        <v>0.504</v>
+        <v>0.528</v>
       </c>
       <c r="U3" t="n">
-        <v>99</v>
+        <v>266</v>
       </c>
       <c r="V3" t="n">
-        <v>129</v>
+        <v>315</v>
       </c>
       <c r="W3" t="n">
-        <v>0.767</v>
+        <v>0.8440000000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="Y3" t="n">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="Z3" t="n">
-        <v>67</v>
+        <v>258</v>
       </c>
       <c r="AA3" t="n">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="AB3" t="n">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="AE3" t="n">
-        <v>120</v>
+        <v>195</v>
       </c>
       <c r="AF3" t="n">
-        <v>552</v>
+        <v>1300</v>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 193</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 77 </t>
+          <t xml:space="preserve"> 99 </t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -783,9 +785,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ3" t="n">
-        <v>14</v>
-      </c>
+      <c r="AJ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -796,15 +796,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1980-81</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -814,90 +814,92 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>34</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>66</v>
+      </c>
+      <c r="I4" t="n">
+        <v>53</v>
+      </c>
       <c r="J4" t="n">
-        <v>1105</v>
+        <v>2228</v>
       </c>
       <c r="K4" t="n">
-        <v>161</v>
+        <v>314</v>
       </c>
       <c r="L4" t="n">
-        <v>330</v>
+        <v>763</v>
       </c>
       <c r="M4" t="n">
-        <v>0.488</v>
+        <v>0.412</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="O4" t="n">
-        <v>6</v>
+        <v>337</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.383</v>
       </c>
       <c r="Q4" t="n">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="R4" t="n">
-        <v>324</v>
+        <v>426</v>
       </c>
       <c r="S4" t="n">
-        <v>0.4970000000000001</v>
+        <v>0.434</v>
       </c>
       <c r="T4" t="n">
-        <v>0.488</v>
+        <v>0.496</v>
       </c>
       <c r="U4" t="n">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="V4" t="n">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="W4" t="n">
-        <v>0.8370000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="X4" t="n">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="Y4" t="n">
-        <v>56</v>
+        <v>168</v>
       </c>
       <c r="Z4" t="n">
-        <v>72</v>
+        <v>224</v>
       </c>
       <c r="AA4" t="n">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="AB4" t="n">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="AC4" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AD4" t="n">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="AE4" t="n">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="AF4" t="n">
-        <v>425</v>
+        <v>904</v>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 193</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 77 </t>
+          <t xml:space="preserve"> 99 </t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -905,9 +907,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ4" t="n">
-        <v>14</v>
-      </c>
+      <c r="AJ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -918,15 +918,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1981-82</t>
+          <t>2012-13</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -936,92 +936,92 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="J5" t="n">
-        <v>837</v>
+        <v>2403</v>
       </c>
       <c r="K5" t="n">
-        <v>131</v>
+        <v>352</v>
       </c>
       <c r="L5" t="n">
-        <v>298</v>
+        <v>808</v>
       </c>
       <c r="M5" t="n">
-        <v>0.44</v>
+        <v>0.436</v>
       </c>
       <c r="N5" t="n">
-        <v>2</v>
+        <v>169</v>
       </c>
       <c r="O5" t="n">
-        <v>8</v>
+        <v>425</v>
       </c>
       <c r="P5" t="n">
-        <v>0.25</v>
+        <v>0.398</v>
       </c>
       <c r="Q5" t="n">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="R5" t="n">
-        <v>290</v>
+        <v>383</v>
       </c>
       <c r="S5" t="n">
-        <v>0.445</v>
+        <v>0.478</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4429999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="U5" t="n">
-        <v>60</v>
+        <v>149</v>
       </c>
       <c r="V5" t="n">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="W5" t="n">
-        <v>0.759</v>
+        <v>0.797</v>
       </c>
       <c r="X5" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="Y5" t="n">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="Z5" t="n">
-        <v>58</v>
+        <v>191</v>
       </c>
       <c r="AA5" t="n">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="AB5" t="n">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="AC5" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="AD5" t="n">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="AE5" t="n">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="AF5" t="n">
-        <v>324</v>
+        <v>1022</v>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 193</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 77 </t>
+          <t xml:space="preserve"> 99 </t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
@@ -1029,9 +1029,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ5" t="n">
-        <v>14</v>
-      </c>
+      <c r="AJ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1042,15 +1040,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1982-83</t>
+          <t>2013-14</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1060,92 +1058,92 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="J6" t="n">
-        <v>1187</v>
+        <v>2780</v>
       </c>
       <c r="K6" t="n">
-        <v>171</v>
+        <v>445</v>
       </c>
       <c r="L6" t="n">
-        <v>424</v>
+        <v>1009</v>
       </c>
       <c r="M6" t="n">
-        <v>0.403</v>
+        <v>0.441</v>
       </c>
       <c r="N6" t="n">
+        <v>201</v>
+      </c>
+      <c r="O6" t="n">
+        <v>511</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.393</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>244</v>
+      </c>
+      <c r="R6" t="n">
+        <v>498</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.541</v>
+      </c>
+      <c r="U6" t="n">
+        <v>252</v>
+      </c>
+      <c r="V6" t="n">
+        <v>301</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.8370000000000001</v>
+      </c>
+      <c r="X6" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>238</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>289</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>197</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>76</v>
+      </c>
+      <c r="AC6" t="n">
         <v>14</v>
       </c>
-      <c r="O6" t="n">
-        <v>48</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.292</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>157</v>
-      </c>
-      <c r="R6" t="n">
-        <v>376</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.418</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="U6" t="n">
-        <v>86</v>
-      </c>
-      <c r="V6" t="n">
-        <v>112</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.768</v>
-      </c>
-      <c r="X6" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>66</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>91</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>249</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8</v>
-      </c>
       <c r="AD6" t="n">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="AE6" t="n">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="AF6" t="n">
-        <v>442</v>
+        <v>1343</v>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 193</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 77 </t>
+          <t xml:space="preserve"> 99 </t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
@@ -1153,9 +1151,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ6" t="n">
-        <v>14</v>
-      </c>
+      <c r="AJ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1166,15 +1162,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1983-84</t>
+          <t>2014-15</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>TOT</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1184,92 +1180,92 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="J7" t="n">
-        <v>388</v>
+        <v>2024</v>
       </c>
       <c r="K7" t="n">
-        <v>61</v>
+        <v>337</v>
       </c>
       <c r="L7" t="n">
-        <v>131</v>
+        <v>752</v>
       </c>
       <c r="M7" t="n">
-        <v>0.466</v>
+        <v>0.448</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>173</v>
       </c>
       <c r="O7" t="n">
-        <v>8</v>
+        <v>445</v>
       </c>
       <c r="P7" t="n">
-        <v>0.125</v>
+        <v>0.389</v>
       </c>
       <c r="Q7" t="n">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="R7" t="n">
-        <v>123</v>
+        <v>307</v>
       </c>
       <c r="S7" t="n">
-        <v>0.488</v>
+        <v>0.534</v>
       </c>
       <c r="T7" t="n">
-        <v>0.469</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="U7" t="n">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="V7" t="n">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="W7" t="n">
-        <v>0.75</v>
+        <v>0.752</v>
       </c>
       <c r="X7" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="Y7" t="n">
-        <v>20</v>
+        <v>184</v>
       </c>
       <c r="Z7" t="n">
-        <v>27</v>
+        <v>222</v>
       </c>
       <c r="AA7" t="n">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="AB7" t="n">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="AC7" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AD7" t="n">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE7" t="n">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="AF7" t="n">
-        <v>150</v>
+        <v>956</v>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 193</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 77 </t>
+          <t xml:space="preserve"> 99 </t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
@@ -1277,9 +1273,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ7" t="n">
-        <v>14</v>
-      </c>
+      <c r="AJ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1290,15 +1284,15 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1983-84</t>
+          <t>2015-16</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1308,92 +1302,92 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="J8" t="n">
-        <v>96</v>
+        <v>2644</v>
       </c>
       <c r="K8" t="n">
-        <v>16</v>
+        <v>331</v>
       </c>
       <c r="L8" t="n">
-        <v>30</v>
+        <v>854</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5329999999999999</v>
+        <v>0.388</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>525</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="Q8" t="n">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="R8" t="n">
-        <v>29</v>
+        <v>329</v>
       </c>
       <c r="S8" t="n">
-        <v>0.552</v>
+        <v>0.4320000000000001</v>
       </c>
       <c r="T8" t="n">
-        <v>0.5329999999999999</v>
+        <v>0.498</v>
       </c>
       <c r="U8" t="n">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="V8" t="n">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.863</v>
       </c>
       <c r="X8" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="Y8" t="n">
-        <v>3</v>
+        <v>211</v>
       </c>
       <c r="Z8" t="n">
-        <v>4</v>
+        <v>238</v>
       </c>
       <c r="AA8" t="n">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="AB8" t="n">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="AC8" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>179</v>
       </c>
       <c r="AF8" t="n">
-        <v>50</v>
+        <v>977</v>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 193</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 77 </t>
+          <t xml:space="preserve"> 99 </t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1401,9 +1395,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ8" t="n">
-        <v>14</v>
-      </c>
+      <c r="AJ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1414,15 +1406,15 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1983-84</t>
+          <t>2016-17</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1432,92 +1424,92 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="J9" t="n">
-        <v>292</v>
+        <v>2495</v>
       </c>
       <c r="K9" t="n">
-        <v>45</v>
+        <v>333</v>
       </c>
       <c r="L9" t="n">
-        <v>101</v>
+        <v>847</v>
       </c>
       <c r="M9" t="n">
-        <v>0.446</v>
+        <v>0.393</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="O9" t="n">
-        <v>7</v>
+        <v>479</v>
       </c>
       <c r="P9" t="n">
-        <v>0.143</v>
+        <v>0.363</v>
       </c>
       <c r="Q9" t="n">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="R9" t="n">
-        <v>94</v>
+        <v>368</v>
       </c>
       <c r="S9" t="n">
-        <v>0.468</v>
+        <v>0.4320000000000001</v>
       </c>
       <c r="T9" t="n">
-        <v>0.45</v>
+        <v>0.496</v>
       </c>
       <c r="U9" t="n">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="V9" t="n">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="W9" t="n">
-        <v>0.643</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="X9" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="Y9" t="n">
-        <v>17</v>
+        <v>241</v>
       </c>
       <c r="Z9" t="n">
-        <v>23</v>
+        <v>259</v>
       </c>
       <c r="AA9" t="n">
-        <v>62</v>
+        <v>210</v>
       </c>
       <c r="AB9" t="n">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="AC9" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AD9" t="n">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="AE9" t="n">
-        <v>32</v>
+        <v>161</v>
       </c>
       <c r="AF9" t="n">
-        <v>100</v>
+        <v>986</v>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 193</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 77 </t>
+          <t xml:space="preserve"> 99 </t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
@@ -1525,9 +1517,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ9" t="n">
-        <v>14</v>
-      </c>
+      <c r="AJ9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1538,15 +1528,15 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1984-85</t>
+          <t>2017-18</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1556,92 +1546,92 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="I10" t="n">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="J10" t="n">
-        <v>1523</v>
+        <v>2131</v>
       </c>
       <c r="K10" t="n">
-        <v>191</v>
+        <v>283</v>
       </c>
       <c r="L10" t="n">
-        <v>386</v>
+        <v>697</v>
       </c>
       <c r="M10" t="n">
-        <v>0.495</v>
+        <v>0.406</v>
       </c>
       <c r="N10" t="n">
-        <v>2</v>
+        <v>153</v>
       </c>
       <c r="O10" t="n">
+        <v>402</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>130</v>
+      </c>
+      <c r="R10" t="n">
+        <v>295</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="U10" t="n">
+        <v>83</v>
+      </c>
+      <c r="V10" t="n">
+        <v>101</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.8220000000000001</v>
+      </c>
+      <c r="X10" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>170</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>198</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>172</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>76</v>
+      </c>
+      <c r="AC10" t="n">
         <v>16</v>
       </c>
-      <c r="P10" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>189</v>
-      </c>
-      <c r="R10" t="n">
-        <v>370</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.511</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.4970000000000001</v>
-      </c>
-      <c r="U10" t="n">
-        <v>59</v>
-      </c>
-      <c r="V10" t="n">
-        <v>85</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0.6940000000000001</v>
-      </c>
-      <c r="X10" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>51</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>354</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>73</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>12</v>
-      </c>
       <c r="AD10" t="n">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="AE10" t="n">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="AF10" t="n">
-        <v>443</v>
+        <v>802</v>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 193</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 77 </t>
+          <t xml:space="preserve"> 99 </t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
@@ -1649,9 +1639,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ10" t="n">
-        <v>14</v>
-      </c>
+      <c r="AJ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1662,15 +1650,15 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1985-86</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>TOT</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1680,92 +1668,92 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SF-SG</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I11" t="n">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="J11" t="n">
-        <v>1853</v>
+        <v>2091</v>
       </c>
       <c r="K11" t="n">
-        <v>320</v>
+        <v>279</v>
       </c>
       <c r="L11" t="n">
-        <v>603</v>
+        <v>698</v>
       </c>
       <c r="M11" t="n">
-        <v>0.531</v>
+        <v>0.4</v>
       </c>
       <c r="N11" t="n">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="O11" t="n">
-        <v>25</v>
+        <v>403</v>
       </c>
       <c r="P11" t="n">
-        <v>0.16</v>
+        <v>0.3720000000000001</v>
       </c>
       <c r="Q11" t="n">
-        <v>316</v>
+        <v>129</v>
       </c>
       <c r="R11" t="n">
-        <v>578</v>
+        <v>295</v>
       </c>
       <c r="S11" t="n">
-        <v>0.547</v>
+        <v>0.4370000000000001</v>
       </c>
       <c r="T11" t="n">
-        <v>0.534</v>
+        <v>0.507</v>
       </c>
       <c r="U11" t="n">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="V11" t="n">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="W11" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="X11" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y11" t="n">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="Z11" t="n">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="AA11" t="n">
-        <v>476</v>
+        <v>160</v>
       </c>
       <c r="AB11" t="n">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="AC11" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="AD11" t="n">
-        <v>232</v>
+        <v>91</v>
       </c>
       <c r="AE11" t="n">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="AF11" t="n">
-        <v>817</v>
+        <v>840</v>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 193</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 77 </t>
+          <t xml:space="preserve"> 99 </t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
@@ -1773,9 +1761,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ11" t="n">
-        <v>14</v>
-      </c>
+      <c r="AJ11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1786,15 +1772,15 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1986-87</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1804,92 +1790,92 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="J12" t="n">
-        <v>532</v>
+        <v>1312</v>
       </c>
       <c r="K12" t="n">
-        <v>89</v>
+        <v>194</v>
       </c>
       <c r="L12" t="n">
-        <v>187</v>
+        <v>469</v>
       </c>
       <c r="M12" t="n">
-        <v>0.476</v>
+        <v>0.414</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="O12" t="n">
-        <v>3</v>
+        <v>263</v>
       </c>
       <c r="P12" t="n">
-        <v>0.333</v>
+        <v>0.38</v>
       </c>
       <c r="Q12" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="R12" t="n">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="S12" t="n">
-        <v>0.478</v>
+        <v>0.456</v>
       </c>
       <c r="T12" t="n">
-        <v>0.479</v>
+        <v>0.52</v>
       </c>
       <c r="U12" t="n">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="V12" t="n">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="W12" t="n">
-        <v>0.8059999999999999</v>
+        <v>0.7909999999999999</v>
       </c>
       <c r="X12" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="Y12" t="n">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="Z12" t="n">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="AA12" t="n">
         <v>100</v>
       </c>
       <c r="AB12" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="AC12" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AD12" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AE12" t="n">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="AF12" t="n">
-        <v>208</v>
+        <v>575</v>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 193</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 77 </t>
+          <t xml:space="preserve"> 99 </t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
@@ -1897,9 +1883,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ12" t="n">
-        <v>14</v>
-      </c>
+      <c r="AJ12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1910,15 +1894,15 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1987-88</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1928,92 +1912,92 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>706</v>
+        <v>54</v>
       </c>
       <c r="K13" t="n">
-        <v>114</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
-        <v>248</v>
+        <v>19</v>
       </c>
       <c r="M13" t="n">
-        <v>0.46</v>
+        <v>0.211</v>
       </c>
       <c r="N13" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O13" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="P13" t="n">
-        <v>0.233</v>
+        <v>0.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>218</v>
+        <v>9</v>
       </c>
       <c r="S13" t="n">
-        <v>0.491</v>
+        <v>0.222</v>
       </c>
       <c r="T13" t="n">
-        <v>0.474</v>
+        <v>0.263</v>
       </c>
       <c r="U13" t="n">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="W13" t="n">
-        <v>0.831</v>
+        <v>0.8</v>
       </c>
       <c r="X13" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Y13" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="Z13" t="n">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="AA13" t="n">
-        <v>138</v>
+        <v>5</v>
       </c>
       <c r="AB13" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AC13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD13" t="n">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="AE13" t="n">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="AF13" t="n">
-        <v>289</v>
+        <v>14</v>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 193</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 77 </t>
+          <t xml:space="preserve"> 99 </t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
@@ -2021,9 +2005,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ13" t="n">
-        <v>14</v>
-      </c>
+      <c r="AJ13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2034,15 +2016,15 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1989-90</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -2052,92 +2034,92 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J14" t="n">
-        <v>13</v>
+        <v>725</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>210</v>
       </c>
       <c r="M14" t="n">
-        <v>0.333</v>
+        <v>0.386</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>0.369</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="R14" t="n">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="S14" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="T14" t="n">
         <v>0.5</v>
       </c>
-      <c r="T14" t="n">
-        <v>0.333</v>
-      </c>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="V14" t="n">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="W14" t="n">
-        <v>1</v>
+        <v>0.8540000000000001</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AA14" t="n">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AF14" t="n">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 193</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 77 </t>
+          <t xml:space="preserve"> 99 </t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
@@ -2145,9 +2127,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ14" t="n">
-        <v>14</v>
-      </c>
+      <c r="AJ14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -2158,114 +2138,234 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>33</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>14</v>
+      </c>
+      <c r="I15" t="n">
+        <v>14</v>
+      </c>
+      <c r="J15" t="n">
+        <v>334</v>
+      </c>
+      <c r="K15" t="n">
+        <v>32</v>
+      </c>
+      <c r="L15" t="n">
+        <v>78</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="N15" t="n">
+        <v>18</v>
+      </c>
+      <c r="O15" t="n">
+        <v>54</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>14</v>
+      </c>
+      <c r="R15" t="n">
+        <v>24</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.526</v>
+      </c>
+      <c r="U15" t="n">
+        <v>12</v>
+      </c>
+      <c r="V15" t="n">
+        <v>16</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>31</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>94</v>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 193</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 99 </t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>Career</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
         <is>
           <t>NBA</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>465</v>
-      </c>
-      <c r="I15" t="n">
-        <v>102</v>
-      </c>
-      <c r="J15" t="n">
-        <v>9305</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1463</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3059</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.478</v>
-      </c>
-      <c r="N15" t="n">
-        <v>36</v>
-      </c>
-      <c r="O15" t="n">
-        <v>160</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1427</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2899</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0.492</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0.484</v>
-      </c>
-      <c r="U15" t="n">
-        <v>692</v>
-      </c>
-      <c r="V15" t="n">
-        <v>878</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0.7879999999999999</v>
-      </c>
-      <c r="X15" t="n">
-        <v>172</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>454</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>626</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>1955</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>444</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>963</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>964</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>3654</v>
-      </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 185</t>
-        </is>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 77 </t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>738</v>
+      </c>
+      <c r="I16" t="n">
+        <v>676</v>
+      </c>
+      <c r="J16" t="n">
+        <v>23913</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3419</v>
+      </c>
+      <c r="L16" t="n">
+        <v>8050</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1573</v>
+      </c>
+      <c r="O16" t="n">
+        <v>4124</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1846</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3926</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1582</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1917</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="X16" t="n">
+        <v>384</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1887</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>2271</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1619</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>801</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>147</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>967</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1628</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>9993</v>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 193</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 99 </t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ15" t="n">
-        <v>14</v>
-      </c>
+      <c r="AJ16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
